--- a/hw2_score_s1061506.xlsx
+++ b/hw2_score_s1061506.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ichenyeh/Dropbox/Course/Computer Graphics/Hw01/Hw02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University(D)\1081\TEST\s1061506_108CGhw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5209FF-862B-AC47-AEDD-1808817C7FD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="460" windowWidth="22740" windowHeight="16500" xr2:uid="{73D4C3C4-C595-1140-8FEB-320631BC01A8}"/>
+    <workbookView xWindow="5784" yWindow="456" windowWidth="22740" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,8 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +241,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,24 +559,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD7397A-15C4-8148-9ECD-C8DF2EAE885B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="66.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="66.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,7 +588,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -603,11 +605,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1">
         <v>10</v>
@@ -616,11 +620,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="1">
         <v>10</v>
@@ -629,11 +635,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1">
         <v>10</v>
@@ -642,18 +650,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -666,11 +676,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="1">
         <v>5</v>
@@ -679,17 +691,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="1">
         <v>25</v>
@@ -698,11 +712,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="1">
         <v>25</v>
@@ -711,11 +727,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1">
         <v>15</v>
@@ -724,11 +742,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1">
         <v>20</v>
@@ -737,17 +757,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <f>SUM(D3:D14)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
@@ -755,6 +775,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hw2_score_s1061506.xlsx
+++ b/hw2_score_s1061506.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>學號：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>三個頭要一起動（上下旋轉、左右旋轉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">左右拖曳：在同一個 XZ 平面上(緯度？)的圓周移動 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下拖曳：在同一個經度(？)上進行緯度(？)的移動</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +253,9 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +574,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.2" x14ac:dyDescent="0.3"/>
@@ -642,7 +653,7 @@
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1">
         <v>10</v>
       </c>
@@ -663,12 +674,16 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
@@ -676,14 +691,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
